--- a/artifacts/srs-수강신청도우미-test_case.xlsx
+++ b/artifacts/srs-수강신청도우미-test_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82102\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김민서\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6823B6-7EA0-4B4F-A29D-AD0AB8C742F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E41AEC8-83BD-4363-87C7-15AC3CFBECC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="174">
   <si>
     <t>TEST CASES</t>
   </si>
@@ -182,9 +182,6 @@
     <t>로그인 성공</t>
   </si>
   <si>
-    <t>relevent material (e.g. link to a github)</t>
-  </si>
-  <si>
     <t>Use case # U0002</t>
   </si>
   <si>
@@ -242,12 +239,6 @@
   </si>
   <si>
     <t>Local</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>high</t>
   </si>
   <si>
     <t>Use case # U0003</t>
@@ -3080,6 +3071,89 @@
         <charset val="129"/>
       </rPr>
       <t>테스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID와 PW가 DB에 저장되었다.</t>
+  </si>
+  <si>
+    <t>"중복되는 아이디입니다" 메싲지 표출</t>
+  </si>
+  <si>
+    <t>로그인이 성공되고 메인페이지로 리다이렉트되었다.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>사용자의 시간대에 반영되었다.</t>
+  </si>
+  <si>
+    <t>메시지가 보여지고, 강의는 시간표에 추가되지 않았다.</t>
+  </si>
+  <si>
+    <t>메시지가 보여지지 않았고, 시간표에 추가되었다.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>시간표가 구현되지 않았다.</t>
+  </si>
+  <si>
+    <t>검색 조건에 맞는 과목 리스트가 출력되었다.</t>
+  </si>
+  <si>
+    <t>"해당 하는 과목이 없습니다."를 출력하였다.</t>
+  </si>
+  <si>
+    <t>에러메시지를 출력하지도 않고, DB에 입력되지도 않았다.</t>
+  </si>
+  <si>
+    <t>성적표가 출력되지 않았다.</t>
+  </si>
+  <si>
+    <t>과목리스트가 출력되었다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성적이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력되지 않았다.</t>
     </r>
     <r>
       <rPr>
@@ -3310,7 +3384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3426,11 +3500,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3561,6 +3676,28 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3821,39 +3958,39 @@
   </sheetPr>
   <dimension ref="A1:AE1008"/>
   <sheetViews>
-    <sheetView topLeftCell="K8" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="11" width="23.109375" customWidth="1"/>
-    <col min="12" max="13" width="17.109375" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
-    <col min="15" max="15" width="32.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="11" width="23.140625" customWidth="1"/>
+    <col min="12" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="157.19999999999999" customHeight="1">
+    <row r="1" spans="1:31" ht="157.15" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4035,7 +4172,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
@@ -4190,7 +4327,7 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:31" ht="55.2" customHeight="1">
+    <row r="10" spans="1:31" ht="55.15" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
         <v>29</v>
@@ -4213,11 +4350,15 @@
       <c r="H10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="19" t="s">
+        <v>159</v>
+      </c>
       <c r="J10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="19"/>
+      <c r="K10" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="L10" s="22" t="s">
         <v>6</v>
       </c>
@@ -4268,11 +4409,15 @@
       <c r="H11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="J11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="19"/>
+      <c r="K11" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="L11" s="22" t="s">
         <v>6</v>
       </c>
@@ -4300,7 +4445,7 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
     </row>
-    <row r="12" spans="1:31" ht="59.4" customHeight="1">
+    <row r="12" spans="1:31" ht="59.45" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="19" t="s">
         <v>42</v>
@@ -4323,22 +4468,24 @@
       <c r="H12" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="19"/>
+      <c r="I12" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="J12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="19"/>
+      <c r="K12" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="L12" s="22" t="s">
         <v>6</v>
       </c>
       <c r="M12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="19"/>
+      <c r="O12" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="P12" s="24"/>
       <c r="Q12" s="4"/>
@@ -4357,16 +4504,16 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
     </row>
-    <row r="13" spans="1:31" ht="73.2" customHeight="1">
+    <row r="13" spans="1:31" ht="73.150000000000006" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>45</v>
@@ -4375,16 +4522,20 @@
         <v>46</v>
       </c>
       <c r="G13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="J13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="19"/>
+      <c r="K13" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="L13" s="19" t="s">
         <v>6</v>
       </c>
@@ -4393,7 +4544,7 @@
       </c>
       <c r="N13" s="19"/>
       <c r="O13" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="25"/>
       <c r="Q13" s="4"/>
@@ -4412,16 +4563,16 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
     </row>
-    <row r="14" spans="1:31" ht="64.8" customHeight="1">
+    <row r="14" spans="1:31" ht="64.900000000000006" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>45</v>
@@ -4430,16 +4581,20 @@
         <v>46</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="J14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="19"/>
+      <c r="K14" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="L14" s="19" t="s">
         <v>6</v>
       </c>
@@ -4448,7 +4603,7 @@
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" s="25"/>
       <c r="Q14" s="4"/>
@@ -11978,7 +12133,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4 L10:M12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10:K12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10:K14" xr:uid="{555DCCE0-EFE5-43B7-8B91-53DEA698C553}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11994,23 +12149,23 @@
   </sheetPr>
   <dimension ref="B2:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="38.77734375" customWidth="1"/>
-    <col min="6" max="6" width="28.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="44.4" customHeight="1">
+    <row r="2" spans="2:15" ht="44.45" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -12044,7 +12199,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="2:15" ht="25.2" customHeight="1">
+    <row r="4" spans="2:15" ht="25.15" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -12056,23 +12211,23 @@
         <v>3</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -12081,7 +12236,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
@@ -12097,7 +12252,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
@@ -12139,7 +12294,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="2:15" ht="37.200000000000003" customHeight="1">
+    <row r="10" spans="2:15" ht="37.15" customHeight="1">
       <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
@@ -12185,345 +12340,388 @@
     </row>
     <row r="11" spans="2:15" ht="57.6" customHeight="1">
       <c r="B11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="32" t="s">
+      <c r="H11" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="I11" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>70</v>
+      <c r="K11" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="N11" s="19"/>
       <c r="O11" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="77.45" customHeight="1">
+      <c r="B12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" ht="77.400000000000006" customHeight="1">
-      <c r="B12" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="19"/>
+      <c r="I12" s="19" t="s">
+        <v>164</v>
+      </c>
       <c r="J12" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="N12" s="19"/>
       <c r="O12" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="77.400000000000006" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="77.45" customHeight="1">
       <c r="B13" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>66</v>
-      </c>
       <c r="H13" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="19"/>
+        <v>74</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>165</v>
+      </c>
       <c r="J13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="N13" s="19"/>
       <c r="O13" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="65.400000000000006" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="65.45" customHeight="1">
       <c r="B14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="J14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="69.599999999999994" customHeight="1">
       <c r="B15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="19"/>
+        <v>85</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="J15" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="N15" s="19"/>
       <c r="O15" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="82.15" customHeight="1">
+      <c r="B16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" ht="82.2" customHeight="1">
-      <c r="B16" s="19" t="s">
+      <c r="E16" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="H16" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="J16" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="N16" s="19"/>
       <c r="O16" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="82.15" customHeight="1">
+      <c r="B17" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" ht="82.2" customHeight="1">
-      <c r="B17" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="19"/>
+      <c r="I17" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="J17" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="67.2" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="67.150000000000006" customHeight="1">
       <c r="B18" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="H18" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="19"/>
+      <c r="I18" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="J18" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="N18" s="19"/>
       <c r="O18" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="56.45" customHeight="1">
+      <c r="B19" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" ht="56.4" customHeight="1">
-      <c r="B19" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="19"/>
+      <c r="I19" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="J19" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C5 L11:M19" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K11:K19" xr:uid="{7A99FD9F-489E-4CE4-A27E-F090F8878FC3}">
+      <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12538,22 +12736,22 @@
   <dimension ref="B2:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="24.6">
+    <row r="2" spans="2:15" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -12586,7 +12784,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:15" ht="15.6">
+    <row r="4" spans="2:15" ht="15.75">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -12595,10 +12793,10 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
@@ -12614,14 +12812,14 @@
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
@@ -12632,12 +12830,12 @@
       <c r="M5" s="10"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:15" ht="40.799999999999997" customHeight="1">
+    <row r="6" spans="2:15" ht="40.9" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
@@ -12655,12 +12853,12 @@
       <c r="M6" s="10"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:15" ht="57.6">
+    <row r="7" spans="2:15" ht="69">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
@@ -12692,7 +12890,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O8" s="10"/>
     </row>
@@ -12712,7 +12910,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="2:15" ht="46.8">
+    <row r="10" spans="2:15" ht="47.25">
       <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
@@ -12758,239 +12956,261 @@
     </row>
     <row r="11" spans="2:15" ht="75">
       <c r="B11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="F11" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="G11" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="19" t="s">
+        <v>168</v>
+      </c>
       <c r="J11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="19"/>
+      <c r="K11" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="L11" s="22" t="s">
         <v>6</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="75">
       <c r="B12" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C12" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="G12" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="H12" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="O12" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="75">
       <c r="B13" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="G13" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="H13" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="I13" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" s="53"/>
+      <c r="K13" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="48"/>
+      <c r="O13" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="21" t="s">
+    </row>
+    <row r="14" spans="2:15" ht="90">
+      <c r="B14" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="C14" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19" t="s">
+      <c r="H14" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="75">
-      <c r="B14" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>6</v>
+      <c r="K14" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="L14" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>58</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="45">
       <c r="B15" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="36" t="s">
         <v>133</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>136</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="I15" s="40"/>
+        <v>134</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>171</v>
+      </c>
       <c r="J15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="36"/>
+      <c r="K15" s="36" t="s">
+        <v>166</v>
+      </c>
       <c r="L15" s="41" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="M15" s="41" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="N15" s="40"/>
       <c r="O15" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="45">
       <c r="B16" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="36" t="s">
         <v>139</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>142</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="40"/>
+        <v>140</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>172</v>
+      </c>
       <c r="J16" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="36"/>
+      <c r="K16" s="36" t="s">
+        <v>166</v>
+      </c>
       <c r="L16" s="41" t="s">
         <v>6</v>
       </c>
       <c r="M16" s="41" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="N16" s="42"/>
       <c r="O16" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C5 L11:M11 L13:M16" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C5 L11:M16" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K11 K13:K16" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K11:K16" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13004,9 +13224,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
